--- a/Assets/06.Table/BlackWolfRing.xlsx
+++ b/Assets/06.Table/BlackWolfRing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CB2B56-39AE-4326-9854-7E4B8A49C690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12EEF01-3838-411A-B3B4-B437CEF5B839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1664,6 +1664,1018 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>190000</v>
+      </c>
+      <c r="C28">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>4.3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>195000</v>
+      </c>
+      <c r="C29">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>4.5</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>200000</v>
+      </c>
+      <c r="C30">
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <v>4.7</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>205000</v>
+      </c>
+      <c r="C31">
+        <v>46</v>
+      </c>
+      <c r="D31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>210000</v>
+      </c>
+      <c r="C32">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>215000</v>
+      </c>
+      <c r="C33">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>5.3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>220000</v>
+      </c>
+      <c r="C34">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>5.5</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>225000</v>
+      </c>
+      <c r="C35">
+        <v>46</v>
+      </c>
+      <c r="D35">
+        <v>5.7</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>230000</v>
+      </c>
+      <c r="C36">
+        <v>46</v>
+      </c>
+      <c r="D36">
+        <v>5.9</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>235000</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>6.1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>240000</v>
+      </c>
+      <c r="C38">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>6.3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>245000</v>
+      </c>
+      <c r="C39">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>6.5</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>250000</v>
+      </c>
+      <c r="C40">
+        <v>46</v>
+      </c>
+      <c r="D40">
+        <v>6.7</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>255000</v>
+      </c>
+      <c r="C41">
+        <v>46</v>
+      </c>
+      <c r="D41">
+        <v>6.9</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>260000</v>
+      </c>
+      <c r="C42">
+        <v>46</v>
+      </c>
+      <c r="D42">
+        <v>7.1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>265000</v>
+      </c>
+      <c r="C43">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <v>7.3</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>270000</v>
+      </c>
+      <c r="C44">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>7.5</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>275000</v>
+      </c>
+      <c r="C45">
+        <v>46</v>
+      </c>
+      <c r="D45">
+        <v>7.6999999999999904</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>280000</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>7.8999999999999897</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>285000</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>8.0999999999999908</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>290000</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>8.2999999999999901</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>295000</v>
+      </c>
+      <c r="C49">
+        <v>46</v>
+      </c>
+      <c r="D49">
+        <v>8.4999999999999893</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>300000</v>
+      </c>
+      <c r="C50">
+        <v>46</v>
+      </c>
+      <c r="D50">
+        <v>8.6999999999999904</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/BlackWolfRing.xlsx
+++ b/Assets/06.Table/BlackWolfRing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12EEF01-3838-411A-B3B4-B437CEF5B839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEFC7EF-0B6A-4884-B61F-6F12136E93C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackWolfRing" sheetId="1" r:id="rId1"/>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2676,6 +2676,886 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>305000</v>
+      </c>
+      <c r="C51">
+        <v>46</v>
+      </c>
+      <c r="D51">
+        <v>8.8999999999999897</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>310000</v>
+      </c>
+      <c r="C52">
+        <v>46</v>
+      </c>
+      <c r="D52">
+        <v>9.0999999999999908</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>315000</v>
+      </c>
+      <c r="C53">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>9.2999999999999901</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>320000</v>
+      </c>
+      <c r="C54">
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <v>9.5</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>325000</v>
+      </c>
+      <c r="C55">
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>330000</v>
+      </c>
+      <c r="C56">
+        <v>46</v>
+      </c>
+      <c r="D56">
+        <v>9.9</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>335000</v>
+      </c>
+      <c r="C57">
+        <v>46</v>
+      </c>
+      <c r="D57">
+        <v>10.1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>340000</v>
+      </c>
+      <c r="C58">
+        <v>46</v>
+      </c>
+      <c r="D58">
+        <v>10.3</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>345000</v>
+      </c>
+      <c r="C59">
+        <v>46</v>
+      </c>
+      <c r="D59">
+        <v>10.5</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>350000</v>
+      </c>
+      <c r="C60">
+        <v>46</v>
+      </c>
+      <c r="D60">
+        <v>10.7</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>355000</v>
+      </c>
+      <c r="C61">
+        <v>46</v>
+      </c>
+      <c r="D61">
+        <v>10.9</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>360000</v>
+      </c>
+      <c r="C62">
+        <v>46</v>
+      </c>
+      <c r="D62">
+        <v>11.1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>365000</v>
+      </c>
+      <c r="C63">
+        <v>46</v>
+      </c>
+      <c r="D63">
+        <v>11.3</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>370000</v>
+      </c>
+      <c r="C64">
+        <v>46</v>
+      </c>
+      <c r="D64">
+        <v>11.5</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>375000</v>
+      </c>
+      <c r="C65">
+        <v>46</v>
+      </c>
+      <c r="D65">
+        <v>11.7</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>380000</v>
+      </c>
+      <c r="C66">
+        <v>46</v>
+      </c>
+      <c r="D66">
+        <v>11.9</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>385000</v>
+      </c>
+      <c r="C67">
+        <v>46</v>
+      </c>
+      <c r="D67">
+        <v>12.1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>390000</v>
+      </c>
+      <c r="C68">
+        <v>46</v>
+      </c>
+      <c r="D68">
+        <v>12.3</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>395000</v>
+      </c>
+      <c r="C69">
+        <v>46</v>
+      </c>
+      <c r="D69">
+        <v>12.5</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>400000</v>
+      </c>
+      <c r="C70">
+        <v>46</v>
+      </c>
+      <c r="D70">
+        <v>12.7</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
